--- a/Python/교통사고정보.xlsx
+++ b/Python/교통사고정보.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>교통사고 당사자 번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -41,27 +41,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>음주 여부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사고직전 속도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전시 사고 관리 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교통사고 날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교통사고 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>부상/사망 여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>음주 여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사고직전 속도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대전시 사고 관리 번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>교통사고 날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>교통사고 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사고 발생지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안전벨트 유무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -412,7 +420,7 @@
     <col min="10" max="10" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,22 +437,28 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
